--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efna1-Epha4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efna1-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Epha4</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.4392708317941</v>
+        <v>20.447252</v>
       </c>
       <c r="H2">
-        <v>19.4392708317941</v>
+        <v>61.341756</v>
       </c>
       <c r="I2">
-        <v>0.8696654107847175</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J2">
-        <v>0.8696654107847175</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.36173227849925</v>
+        <v>7.727270999999999</v>
       </c>
       <c r="N2">
-        <v>7.36173227849925</v>
+        <v>23.181813</v>
       </c>
       <c r="O2">
-        <v>0.4506279295385468</v>
+        <v>0.4492515923977304</v>
       </c>
       <c r="P2">
-        <v>0.4506279295385468</v>
+        <v>0.4784711627054499</v>
       </c>
       <c r="Q2">
-        <v>143.1067075529076</v>
+        <v>158.001457409292</v>
       </c>
       <c r="R2">
-        <v>143.1067075529076</v>
+        <v>1422.013116683628</v>
       </c>
       <c r="S2">
-        <v>0.3918955234532071</v>
+        <v>0.3908105015858083</v>
       </c>
       <c r="T2">
-        <v>0.3918955234532071</v>
+        <v>0.4196473886049349</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.4392708317941</v>
+        <v>20.447252</v>
       </c>
       <c r="H3">
-        <v>19.4392708317941</v>
+        <v>61.341756</v>
       </c>
       <c r="I3">
-        <v>0.8696654107847175</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J3">
-        <v>0.8696654107847175</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.97705345708693</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N3">
-        <v>5.97705345708693</v>
+        <v>18.878545</v>
       </c>
       <c r="O3">
-        <v>0.3658686735966679</v>
+        <v>0.3658564756519351</v>
       </c>
       <c r="P3">
-        <v>0.3658686735966679</v>
+        <v>0.3896519817642027</v>
       </c>
       <c r="Q3">
-        <v>116.189560928424</v>
+        <v>128.6714556694467</v>
       </c>
       <c r="R3">
-        <v>116.189560928424</v>
+        <v>1158.04310102502</v>
       </c>
       <c r="S3">
-        <v>0.3181833303167059</v>
+        <v>0.3182638752482497</v>
       </c>
       <c r="T3">
-        <v>0.3181833303167059</v>
+        <v>0.3417477360338793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +655,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.4392708317941</v>
+        <v>20.447252</v>
       </c>
       <c r="H4">
-        <v>19.4392708317941</v>
+        <v>61.341756</v>
       </c>
       <c r="I4">
-        <v>0.8696654107847175</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J4">
-        <v>0.8696654107847175</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.99782324033289</v>
+        <v>0.021228</v>
       </c>
       <c r="N4">
-        <v>2.99782324033289</v>
+        <v>0.063684</v>
       </c>
       <c r="O4">
-        <v>0.1835033968647853</v>
+        <v>0.001234163109255392</v>
       </c>
       <c r="P4">
-        <v>0.1835033968647853</v>
+        <v>0.001314433755709007</v>
       </c>
       <c r="Q4">
-        <v>58.27549787467763</v>
+        <v>0.434054265456</v>
       </c>
       <c r="R4">
-        <v>58.27549787467763</v>
+        <v>3.906488389104</v>
       </c>
       <c r="S4">
-        <v>0.1595865570148045</v>
+        <v>0.001073616458858961</v>
       </c>
       <c r="T4">
-        <v>0.1595865570148045</v>
+        <v>0.001152835815555784</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.35469334796926</v>
+        <v>20.447252</v>
       </c>
       <c r="H5">
-        <v>2.35469334796926</v>
+        <v>61.341756</v>
       </c>
       <c r="I5">
-        <v>0.105343218655323</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J5">
-        <v>0.105343218655323</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>7.36173227849925</v>
+        <v>0.007773333333333333</v>
       </c>
       <c r="N5">
-        <v>7.36173227849925</v>
+        <v>0.02332</v>
       </c>
       <c r="O5">
-        <v>0.4506279295385468</v>
+        <v>0.0004519295852621654</v>
       </c>
       <c r="P5">
-        <v>0.4506279295385468</v>
+        <v>0.0004813233336965963</v>
       </c>
       <c r="Q5">
-        <v>17.33462202571277</v>
+        <v>0.1589433055466667</v>
       </c>
       <c r="R5">
-        <v>17.33462202571277</v>
+        <v>1.43048974992</v>
       </c>
       <c r="S5">
-        <v>0.04747059651357462</v>
+        <v>0.0003931401265716815</v>
       </c>
       <c r="T5">
-        <v>0.04747059651357462</v>
+        <v>0.0004221489105389248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.35469334796926</v>
+        <v>20.447252</v>
       </c>
       <c r="H6">
-        <v>2.35469334796926</v>
+        <v>61.341756</v>
       </c>
       <c r="I6">
-        <v>0.105343218655323</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J6">
-        <v>0.105343218655323</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.97705345708693</v>
+        <v>3.151199</v>
       </c>
       <c r="N6">
-        <v>5.97705345708693</v>
+        <v>6.302398</v>
       </c>
       <c r="O6">
-        <v>0.3658686735966679</v>
+        <v>0.183205839255817</v>
       </c>
       <c r="P6">
-        <v>0.3658686735966679</v>
+        <v>0.1300810984409417</v>
       </c>
       <c r="Q6">
-        <v>14.07412801585926</v>
+        <v>64.433360055148</v>
       </c>
       <c r="R6">
-        <v>14.07412801585926</v>
+        <v>386.600160330888</v>
       </c>
       <c r="S6">
-        <v>0.03854178368182679</v>
+        <v>0.1593734271499858</v>
       </c>
       <c r="T6">
-        <v>0.03854178368182679</v>
+        <v>0.1140887842831346</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +841,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.35469334796926</v>
+        <v>2.483247333333333</v>
       </c>
       <c r="H7">
-        <v>2.35469334796926</v>
+        <v>7.449742</v>
       </c>
       <c r="I7">
-        <v>0.105343218655323</v>
+        <v>0.105648084777455</v>
       </c>
       <c r="J7">
-        <v>0.105343218655323</v>
+        <v>0.1065157390747562</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.99782324033289</v>
+        <v>7.727270999999999</v>
       </c>
       <c r="N7">
-        <v>2.99782324033289</v>
+        <v>23.181813</v>
       </c>
       <c r="O7">
-        <v>0.1835033968647853</v>
+        <v>0.4492515923977304</v>
       </c>
       <c r="P7">
-        <v>0.1835033968647853</v>
+        <v>0.4784711627054499</v>
       </c>
       <c r="Q7">
-        <v>7.058954442399509</v>
+        <v>19.188725104694</v>
       </c>
       <c r="R7">
-        <v>7.058954442399509</v>
+        <v>172.698525942246</v>
       </c>
       <c r="S7">
-        <v>0.01933083845992159</v>
+        <v>0.04746257032004208</v>
       </c>
       <c r="T7">
-        <v>0.01933083845992159</v>
+        <v>0.05096470952152894</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +903,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.558621758147675</v>
+        <v>2.483247333333333</v>
       </c>
       <c r="H8">
-        <v>0.558621758147675</v>
+        <v>7.449742</v>
       </c>
       <c r="I8">
-        <v>0.02499137055995952</v>
+        <v>0.105648084777455</v>
       </c>
       <c r="J8">
-        <v>0.02499137055995952</v>
+        <v>0.1065157390747562</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.36173227849925</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N8">
-        <v>7.36173227849925</v>
+        <v>18.878545</v>
       </c>
       <c r="O8">
-        <v>0.4506279295385468</v>
+        <v>0.3658564756519351</v>
       </c>
       <c r="P8">
-        <v>0.4506279295385468</v>
+        <v>0.3896519817642027</v>
       </c>
       <c r="Q8">
-        <v>4.11242382842774</v>
+        <v>15.62669884282111</v>
       </c>
       <c r="R8">
-        <v>4.11242382842774</v>
+        <v>140.64028958539</v>
       </c>
       <c r="S8">
-        <v>0.01126180957176515</v>
+        <v>0.03865203595605653</v>
       </c>
       <c r="T8">
-        <v>0.01126180957176515</v>
+        <v>0.0415040688195575</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.558621758147675</v>
+        <v>2.483247333333333</v>
       </c>
       <c r="H9">
-        <v>0.558621758147675</v>
+        <v>7.449742</v>
       </c>
       <c r="I9">
-        <v>0.02499137055995952</v>
+        <v>0.105648084777455</v>
       </c>
       <c r="J9">
-        <v>0.02499137055995952</v>
+        <v>0.1065157390747562</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>5.97705345708693</v>
+        <v>0.021228</v>
       </c>
       <c r="N9">
-        <v>5.97705345708693</v>
+        <v>0.063684</v>
       </c>
       <c r="O9">
-        <v>0.3658686735966679</v>
+        <v>0.001234163109255392</v>
       </c>
       <c r="P9">
-        <v>0.3658686735966679</v>
+        <v>0.001314433755709007</v>
       </c>
       <c r="Q9">
-        <v>3.33891211074054</v>
+        <v>0.052714374392</v>
       </c>
       <c r="R9">
-        <v>3.33891211074054</v>
+        <v>0.474429369528</v>
       </c>
       <c r="S9">
-        <v>0.009143559598135205</v>
+        <v>0.0001303869687958211</v>
       </c>
       <c r="T9">
-        <v>0.009143559598135205</v>
+        <v>0.0001400078829541524</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1021,55 +1027,427 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.483247333333333</v>
+      </c>
+      <c r="H10">
+        <v>7.449742</v>
+      </c>
+      <c r="I10">
+        <v>0.105648084777455</v>
+      </c>
+      <c r="J10">
+        <v>0.1065157390747562</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.02332</v>
+      </c>
+      <c r="O10">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="P10">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="Q10">
+        <v>0.01930310927111111</v>
+      </c>
+      <c r="R10">
+        <v>0.17372798344</v>
+      </c>
+      <c r="S10">
+        <v>4.774549513721733E-05</v>
+      </c>
+      <c r="T10">
+        <v>5.126851062261847E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.558621758147675</v>
-      </c>
-      <c r="H10">
-        <v>0.558621758147675</v>
-      </c>
-      <c r="I10">
-        <v>0.02499137055995952</v>
-      </c>
-      <c r="J10">
-        <v>0.02499137055995952</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.99782324033289</v>
-      </c>
-      <c r="N10">
-        <v>2.99782324033289</v>
-      </c>
-      <c r="O10">
-        <v>0.1835033968647853</v>
-      </c>
-      <c r="P10">
-        <v>0.1835033968647853</v>
-      </c>
-      <c r="Q10">
-        <v>1.674649289130719</v>
-      </c>
-      <c r="R10">
-        <v>1.674649289130719</v>
-      </c>
-      <c r="S10">
-        <v>0.004586001390059162</v>
-      </c>
-      <c r="T10">
-        <v>0.004586001390059162</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.483247333333333</v>
+      </c>
+      <c r="H11">
+        <v>7.449742</v>
+      </c>
+      <c r="I11">
+        <v>0.105648084777455</v>
+      </c>
+      <c r="J11">
+        <v>0.1065157390747562</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.151199</v>
+      </c>
+      <c r="N11">
+        <v>6.302398</v>
+      </c>
+      <c r="O11">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="P11">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="Q11">
+        <v>7.825206513552667</v>
+      </c>
+      <c r="R11">
+        <v>46.951239081316</v>
+      </c>
+      <c r="S11">
+        <v>0.01935534603742334</v>
+      </c>
+      <c r="T11">
+        <v>0.01385568434009303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5743975</v>
+      </c>
+      <c r="H12">
+        <v>1.148795</v>
+      </c>
+      <c r="I12">
+        <v>0.02443735465307048</v>
+      </c>
+      <c r="J12">
+        <v>0.01642536727720028</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.727270999999999</v>
+      </c>
+      <c r="N12">
+        <v>23.181813</v>
+      </c>
+      <c r="O12">
+        <v>0.4492515923977304</v>
+      </c>
+      <c r="P12">
+        <v>0.4784711627054499</v>
+      </c>
+      <c r="Q12">
+        <v>4.438525144222499</v>
+      </c>
+      <c r="R12">
+        <v>26.631150865335</v>
+      </c>
+      <c r="S12">
+        <v>0.01097852049188</v>
+      </c>
+      <c r="T12">
+        <v>0.00785906457898607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5743975</v>
+      </c>
+      <c r="H13">
+        <v>1.148795</v>
+      </c>
+      <c r="I13">
+        <v>0.02443735465307048</v>
+      </c>
+      <c r="J13">
+        <v>0.01642536727720028</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.292848333333333</v>
+      </c>
+      <c r="N13">
+        <v>18.878545</v>
+      </c>
+      <c r="O13">
+        <v>0.3658564756519351</v>
+      </c>
+      <c r="P13">
+        <v>0.3896519817642027</v>
+      </c>
+      <c r="Q13">
+        <v>3.614596350545833</v>
+      </c>
+      <c r="R13">
+        <v>21.687578103275</v>
+      </c>
+      <c r="S13">
+        <v>0.008940564447628785</v>
+      </c>
+      <c r="T13">
+        <v>0.006400176910765977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5743975</v>
+      </c>
+      <c r="H14">
+        <v>1.148795</v>
+      </c>
+      <c r="I14">
+        <v>0.02443735465307048</v>
+      </c>
+      <c r="J14">
+        <v>0.01642536727720028</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.021228</v>
+      </c>
+      <c r="N14">
+        <v>0.063684</v>
+      </c>
+      <c r="O14">
+        <v>0.001234163109255392</v>
+      </c>
+      <c r="P14">
+        <v>0.001314433755709007</v>
+      </c>
+      <c r="Q14">
+        <v>0.01219331013</v>
+      </c>
+      <c r="R14">
+        <v>0.07315986078</v>
+      </c>
+      <c r="S14">
+        <v>3.015968160061019E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.159005719907019E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5743975</v>
+      </c>
+      <c r="H15">
+        <v>1.148795</v>
+      </c>
+      <c r="I15">
+        <v>0.02443735465307048</v>
+      </c>
+      <c r="J15">
+        <v>0.01642536727720028</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.02332</v>
+      </c>
+      <c r="O15">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="P15">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="Q15">
+        <v>0.004464983233333333</v>
+      </c>
+      <c r="R15">
+        <v>0.0267898994</v>
+      </c>
+      <c r="S15">
+        <v>1.104396355326659E-05</v>
+      </c>
+      <c r="T15">
+        <v>7.905912535053025E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5743975</v>
+      </c>
+      <c r="H16">
+        <v>1.148795</v>
+      </c>
+      <c r="I16">
+        <v>0.02443735465307048</v>
+      </c>
+      <c r="J16">
+        <v>0.01642536727720028</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.151199</v>
+      </c>
+      <c r="N16">
+        <v>6.302398</v>
+      </c>
+      <c r="O16">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="P16">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="Q16">
+        <v>1.8100408276025</v>
+      </c>
+      <c r="R16">
+        <v>7.24016331041</v>
+      </c>
+      <c r="S16">
+        <v>0.004477066068407822</v>
+      </c>
+      <c r="T16">
+        <v>0.002136629817714113</v>
       </c>
     </row>
   </sheetData>
